--- a/Part-A/טבלת דרישות.xlsx
+++ b/Part-A/טבלת דרישות.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\itayp\Google Drive\Programing\FinalProject\Part-A\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ינון אברמשוילי\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2FDDF13-B5EF-44A1-A1E5-12DBF234B988}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B1DAFA74-3042-448B-978D-A85A3C38442F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7680"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="71">
   <si>
     <t xml:space="preserve">בכניסה  לאפליקציה יעלה לוגו של האפליקציה  למסך למספר שניות ולאחריו יפתח המסך הראשי.                           </t>
   </si>
@@ -185,15 +184,6 @@
     <t xml:space="preserve">לאחר הזנת הנתונים ולחיצה על חיפוש מורה תופיע במסך רשימת המורים המתאימים לקריטריונים. </t>
   </si>
   <si>
-    <t>בעת בחירת המורה יפתח מסך המציג את הניקוד שהוא קיבל ואת הביקורות עליו.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">בעת בחירת מורה תינתן האפשרות להצגת הפרופיל המלא שלו. </t>
-  </si>
-  <si>
-    <t>עם לחיצה על הצג פרופיל יוצג פרופיל המורה.</t>
-  </si>
-  <si>
     <t>במסך בחירת המורה התלמיד יקבע את השיעור לפי רשימת השעות והתאריכים שבהם המורה פנוי לשיעור.</t>
   </si>
   <si>
@@ -212,9 +202,6 @@
     <t>במסך הניהול יופיעו כמות המשתמשים הרשומים, תלמידים ומורים.</t>
   </si>
   <si>
-    <t xml:space="preserve"> במסך הניהול ניתן יהיה לראות את סטטיסטיקת השימוש באפליקציה.</t>
-  </si>
-  <si>
     <t>FR</t>
   </si>
   <si>
@@ -230,9 +217,6 @@
     <t>DR</t>
   </si>
   <si>
-    <t>OD\DR</t>
-  </si>
-  <si>
     <t>OR</t>
   </si>
   <si>
@@ -243,12 +227,27 @@
   </si>
   <si>
     <t>OR/DR</t>
+  </si>
+  <si>
+    <t>QA</t>
+  </si>
+  <si>
+    <t>בעת בחירת המורה יוצג פרופיל המורה, הכולל ציון וביקורות.</t>
+  </si>
+  <si>
+    <t>בעת לחיצה על 'ביקורות' יוצגו הביקורות אותם קיבל המורה.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> במסך הניהול יופיעו סוגי סטטיסטיקות אותם ניתן יהיה לראות.</t>
+  </si>
+  <si>
+    <t>על ידי לחיצה על מקש סטטיסטיקה כלשהו תופיע אותה סטטיסטיקה.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -603,11 +602,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4339BC73-682C-4E5A-A680-90634C7FDA90}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -618,47 +617,59 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B2" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="B3" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="B4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="B6" t="s">
+        <v>61</v>
+      </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
@@ -666,7 +677,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>66</v>
+        <v>62</v>
+      </c>
+      <c r="C7" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
@@ -674,7 +688,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
@@ -682,7 +696,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
@@ -690,10 +704,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C10" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
@@ -701,7 +712,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>68</v>
+        <v>63</v>
+      </c>
+      <c r="C11" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
@@ -709,10 +723,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C12" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
@@ -720,7 +734,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
@@ -728,7 +742,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
@@ -736,252 +750,423 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>65</v>
+      </c>
+      <c r="C37" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>62</v>
+      </c>
+      <c r="C47" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
+        <v>62</v>
+      </c>
+      <c r="C52" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
+        <v>62</v>
+      </c>
+      <c r="C53" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B55" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B56" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
+      <c r="B57" t="s">
+        <v>65</v>
+      </c>
+      <c r="C57" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
+      <c r="B58" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
+      <c r="B59" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
+      <c r="B60" t="s">
+        <v>65</v>
+      </c>
+      <c r="C60" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
+      <c r="B61" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A62" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B62" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="B63" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>60</v>
+        <v>70</v>
+      </c>
+      <c r="B64" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/Part-A/טבלת דרישות.xlsx
+++ b/Part-A/טבלת דרישות.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ינון אברמשוילי\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\itayp\Google Drive\Programing\FinalProject\Part-A\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AA0C47A-407D-424E-8826-6A091BC5514D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7680"/>
+    <workbookView xWindow="13125" yWindow="45" windowWidth="15630" windowHeight="15975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
@@ -19,11 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -247,7 +243,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -602,570 +598,759 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D64"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E64"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35:B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="110.125" customWidth="1"/>
-    <col min="2" max="2" width="8.625" customWidth="1"/>
+    <col min="2" max="2" width="110.125" customWidth="1"/>
+    <col min="3" max="3" width="8.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
         <v>57</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>58</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="C2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="C3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>61</v>
-      </c>
       <c r="C4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="C5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>61</v>
-      </c>
       <c r="C6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>62</v>
-      </c>
       <c r="C7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="C8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="C9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="C10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>63</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
-        <v>62</v>
-      </c>
       <c r="C12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+      <c r="C13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+      <c r="C14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+      <c r="C16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+      <c r="C17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B18" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+      <c r="C18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B19" t="s">
-        <v>65</v>
-      </c>
       <c r="C19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B20" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+      <c r="C20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B21" t="s">
-        <v>62</v>
-      </c>
       <c r="C21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B22" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
+      <c r="C22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B23" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
+      <c r="C23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B24" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
+      <c r="C24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B25" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+      <c r="C25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B26" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
+      <c r="C26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B27" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
+      <c r="C27" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B28" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
+      <c r="C28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B29" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
+      <c r="C29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B30" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
+      <c r="C30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B31" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
+      <c r="C31" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B32" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
+      <c r="C32" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B33" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
+      <c r="C33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B34" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
+      <c r="C34" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B35" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
+      <c r="C35" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B36" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
+      <c r="C36" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B37" t="s">
-        <v>65</v>
-      </c>
       <c r="C37" t="s">
+        <v>65</v>
+      </c>
+      <c r="D37" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
+    <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B38" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
+      <c r="C38" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B39" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
+      <c r="C39" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B40" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
+      <c r="C40" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B41" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
+      <c r="C41" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B42" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
+      <c r="C42" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B43" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
+      <c r="C43" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B44" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
+      <c r="C44" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B45" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
+      <c r="C45" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B46" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
+      <c r="C46" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B47" t="s">
-        <v>62</v>
-      </c>
       <c r="C47" t="s">
+        <v>62</v>
+      </c>
+      <c r="D47" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
+    <row r="48" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B48" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
+      <c r="C48" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B49" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
+      <c r="C49" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B50" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
+      <c r="C50" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B51" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
+      <c r="C51" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B52" t="s">
-        <v>62</v>
-      </c>
       <c r="C52" t="s">
+        <v>62</v>
+      </c>
+      <c r="D52" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
+    <row r="53" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B53" t="s">
-        <v>62</v>
-      </c>
       <c r="C53" t="s">
+        <v>62</v>
+      </c>
+      <c r="D53" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
+    <row r="54" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B54" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
+      <c r="C54" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B55" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
+      <c r="C55" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B56" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
+      <c r="C56" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B57" t="s">
-        <v>65</v>
-      </c>
       <c r="C57" t="s">
+        <v>65</v>
+      </c>
+      <c r="D57" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
+    <row r="58" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B58" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
+      <c r="C58" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B59" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
+      <c r="C59" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B60" t="s">
-        <v>65</v>
-      </c>
       <c r="C60" t="s">
+        <v>65</v>
+      </c>
+      <c r="D60" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
+    <row r="61" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B61" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A62" s="1" t="s">
+      <c r="C61" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B62" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A63" s="1" t="s">
+      <c r="C62" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B63" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A64" s="1" t="s">
+      <c r="C63" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C64" t="s">
         <v>62</v>
       </c>
     </row>
